--- a/income_expenses_manager.xlsx
+++ b/income_expenses_manager.xlsx
@@ -94,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,14 +126,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
@@ -143,6 +135,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,14 +193,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -201,8 +205,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1589,7 +1597,7 @@
   <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1616,19 +1624,19 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -1697,254 +1705,254 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="6" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>45658</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>200000</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="8">
         <v>45661</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <v>10000</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>45675</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>58700</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>2</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="8">
         <v>45665</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="10">
         <v>54000</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>3</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>45681</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>6950</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>3</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="8">
         <v>45666</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="10">
         <v>8500</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>4</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>45683</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>23600</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>4</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="8">
         <v>45678</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="10">
         <v>41000</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>45685</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>46590</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>5</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="8">
         <v>45681</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="10">
         <v>4500</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>6</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="E17" s="11"/>
-      <c r="G17" s="5">
+      <c r="C17" s="3"/>
+      <c r="E17" s="9"/>
+      <c r="G17" s="3">
         <v>6</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <v>45686</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="10">
         <v>18000</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>7</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="E18" s="11"/>
-      <c r="G18" s="5">
+      <c r="C18" s="3"/>
+      <c r="E18" s="9"/>
+      <c r="G18" s="3">
         <v>7</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="J18" s="12"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>8</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="11"/>
-      <c r="G19" s="5">
+      <c r="C19" s="3"/>
+      <c r="E19" s="9"/>
+      <c r="G19" s="3">
         <v>8</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="J19" s="12"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>9</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="E20" s="11"/>
-      <c r="G20" s="5">
+      <c r="C20" s="3"/>
+      <c r="E20" s="9"/>
+      <c r="G20" s="3">
         <v>9</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="J20" s="12"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="E23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="E25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="E25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1991,19 +1999,19 @@
       </c>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <f>SUM(Sheet1!E12:E20)</f>
         <v>335840</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <f>SUM(Sheet1!J12:J20)</f>
         <v>136000</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <f>IF(D6&gt;E6,D6-E6,0)</f>
         <v>199840</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <f>IF(E6&gt;D6,E6-D6,0)</f>
         <v>0</v>
       </c>
